--- a/Planning/Done_ToBeDoneList.xlsx
+++ b/Planning/Done_ToBeDoneList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harold\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harold\Documents\GitHub\Gamelab_3\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
   <si>
     <t>Kilian</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Inhibiter</t>
   </si>
   <si>
-    <t>Heavy armour set</t>
-  </si>
-  <si>
     <t>Speren</t>
   </si>
   <si>
@@ -268,6 +265,12 @@
   </si>
   <si>
     <t>Level System</t>
+  </si>
+  <si>
+    <t>Heavy Armor set</t>
+  </si>
+  <si>
+    <t>Boog?</t>
   </si>
 </sst>
 </file>
@@ -625,7 +628,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -678,171 +681,169 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -855,11 +856,12 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -881,7 +883,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -903,84 +905,90 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Planning/Done_ToBeDoneList.xlsx
+++ b/Planning/Done_ToBeDoneList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18150" windowHeight="9570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18150" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="1" r:id="rId1"/>
@@ -627,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +709,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
@@ -737,7 +739,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
@@ -763,7 +765,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -788,9 +790,6 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
@@ -855,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Planning/Done_ToBeDoneList.xlsx
+++ b/Planning/Done_ToBeDoneList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18150" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18150" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Done" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>Kilian</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>Boog?</t>
+  </si>
+  <si>
+    <t>GG box animeren</t>
   </si>
 </sst>
 </file>
@@ -627,7 +630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -854,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,6 +979,9 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
       <c r="I5" s="2" t="s">
         <v>70</v>
       </c>
